--- a/data/trans_dic/P12_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12_2_R-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.08490821752564609</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.09773647063726046</v>
+        <v>0.09773647063726049</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06153464001034398</v>
+        <v>0.06277401100762961</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05657464293413756</v>
+        <v>0.05749474384473374</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04486088693567595</v>
+        <v>0.04601360230386579</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01832264414061604</v>
+        <v>0.01922617545464993</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1253431063263214</v>
+        <v>0.1251177410322072</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07663620843201484</v>
+        <v>0.07864577595349613</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07559261987157587</v>
+        <v>0.07703842994751155</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1107151404059697</v>
+        <v>0.1099510476657639</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1003870744084698</v>
+        <v>0.09974948929872626</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07397747095083204</v>
+        <v>0.07441909596914305</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06760087608715691</v>
+        <v>0.06538323247867969</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07101322488050443</v>
+        <v>0.07002826194370448</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1121971390237768</v>
+        <v>0.1119214755747537</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1089607075601619</v>
+        <v>0.1089500951487384</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09966315675465762</v>
+        <v>0.09837009972341045</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08568886297838409</v>
+        <v>0.08532149013780288</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1906905155664687</v>
+        <v>0.189055363665378</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1380608364146202</v>
+        <v>0.1426477952660487</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1368573198043253</v>
+        <v>0.1400366034572469</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2220113871023326</v>
+        <v>0.2180771910353954</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1404726683155275</v>
+        <v>0.1418697731100452</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1148507988488245</v>
+        <v>0.111493971960902</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1078152990197803</v>
+        <v>0.1055139206857133</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1370427518580249</v>
+        <v>0.1310780338010253</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.08734953668384371</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1073732732116881</v>
+        <v>0.107373273211688</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1842075222152258</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09666276500099845</v>
+        <v>0.09765413777421585</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07261663003003345</v>
+        <v>0.07428951466520592</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06534264039281021</v>
+        <v>0.06613328259827334</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07385902916775655</v>
+        <v>0.07129362282108714</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1512883481708034</v>
+        <v>0.1553869612705805</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1213451138373116</v>
+        <v>0.1218108637431743</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08273228107598586</v>
+        <v>0.08516414062385083</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1029720432301224</v>
+        <v>0.1047700534653228</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1317818864536037</v>
+        <v>0.1308701866678975</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1015881222890241</v>
+        <v>0.1015928173059432</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08021643579497806</v>
+        <v>0.08156341651059615</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.09690427139857505</v>
+        <v>0.09804126992159831</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1450501201281381</v>
+        <v>0.1480524915669269</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1179686378507916</v>
+        <v>0.1213416696561468</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.11393594531694</v>
+        <v>0.1140177066904733</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1474188187408305</v>
+        <v>0.1499041256946728</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2149974930459221</v>
+        <v>0.2164461792677619</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1786640735910925</v>
+        <v>0.1784163637777151</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1362484314014995</v>
+        <v>0.1378018138771571</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1654158633972261</v>
+        <v>0.1665108934767494</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.170614664033833</v>
+        <v>0.1717745912500893</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1387809330354067</v>
+        <v>0.1380752589146534</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1151072124746833</v>
+        <v>0.1169336378567133</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1475152203771452</v>
+        <v>0.1461280881229658</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1391314524743661</v>
+        <v>0.1418861777331533</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1159248446519325</v>
+        <v>0.1166229400238921</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07400367967373017</v>
+        <v>0.07550584272893832</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1021237965121831</v>
+        <v>0.1040048194056022</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1905757615592354</v>
+        <v>0.1853761759274507</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1684117742787167</v>
+        <v>0.1655451577917336</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1168730079862268</v>
+        <v>0.1183229260277906</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1340316448591547</v>
+        <v>0.1312247569364401</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1764957378905764</v>
+        <v>0.1745379772771845</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1510088741167894</v>
+        <v>0.1504316777570368</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1017672501795549</v>
+        <v>0.1037178714810155</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1257812937219145</v>
+        <v>0.1253689378612655</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2027140671788253</v>
+        <v>0.1999136328239667</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1742143554283607</v>
+        <v>0.1726364615312361</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1203928668899826</v>
+        <v>0.1226085098710333</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.162224381847186</v>
+        <v>0.1613717919493652</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2545659713077614</v>
+        <v>0.2497246918404219</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2277185343384379</v>
+        <v>0.2270207816229147</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1711862810152308</v>
+        <v>0.1697277382904809</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1802857426653565</v>
+        <v>0.1809051535276921</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.220833229813318</v>
+        <v>0.2185881600243963</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1903224502073755</v>
+        <v>0.1917320553098094</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1398554692371665</v>
+        <v>0.138892809685188</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1631482323558497</v>
+        <v>0.1640921003007559</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1758450908140846</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1873992182620858</v>
+        <v>0.1873992182620859</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1436844258165847</v>
+        <v>0.1415580899060191</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1334763298812624</v>
+        <v>0.1335959500005784</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1284011605732711</v>
+        <v>0.1269550548720407</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1388812010036108</v>
+        <v>0.1379292573528293</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2440015327876196</v>
+        <v>0.2445656418550188</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2292459772585336</v>
+        <v>0.232944151829445</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1685706865483944</v>
+        <v>0.1659838129265192</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.187218348536327</v>
+        <v>0.1852612072592514</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2055186485225315</v>
+        <v>0.2019356782599209</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.191664230491873</v>
+        <v>0.1910046664706362</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1550610411839671</v>
+        <v>0.1553806711234214</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1708843406143083</v>
+        <v>0.1685686425583519</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2139156888381758</v>
+        <v>0.212965715325675</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1988044524629033</v>
+        <v>0.1963078562891117</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1882591723095017</v>
+        <v>0.1876921911141485</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1994046959553317</v>
+        <v>0.1969746431660911</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3224104826954644</v>
+        <v>0.3270400861034051</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3057010218526779</v>
+        <v>0.3089050765332973</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2317979721936713</v>
+        <v>0.228646230637149</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2325001588756141</v>
+        <v>0.2342636053520585</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2597934063529266</v>
+        <v>0.2560115629203673</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2428387472891222</v>
+        <v>0.2424772020132911</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1991160056243046</v>
+        <v>0.1987105041692741</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2068135455572459</v>
+        <v>0.205270900510378</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2477388981169628</v>
+        <v>0.2440006900142727</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1960863988617277</v>
+        <v>0.1955202260871663</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1571561551829309</v>
+        <v>0.1546258514224558</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1792327655272066</v>
+        <v>0.1783515705547727</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3128060309857829</v>
+        <v>0.3185519672570796</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2796568700545652</v>
+        <v>0.2789017363152967</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2410603075921043</v>
+        <v>0.2408497347350604</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2543358145038876</v>
+        <v>0.2524878649060594</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2933848328558235</v>
+        <v>0.2916312481717397</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2518808607941533</v>
+        <v>0.2535417507478638</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2112190022074664</v>
+        <v>0.2112106463559004</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2236095100142782</v>
+        <v>0.2260371744084622</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3360953771145346</v>
+        <v>0.3379896938805746</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.279913479361479</v>
+        <v>0.2805282830390408</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2311397254004667</v>
+        <v>0.2290357148713454</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2416483533260785</v>
+        <v>0.2435254222199132</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4074808366084595</v>
+        <v>0.4095787720488118</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3709502257259861</v>
+        <v>0.372848290695615</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3291703755583341</v>
+        <v>0.3288119738072949</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3070413120381714</v>
+        <v>0.3071136861478313</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.361295792922917</v>
+        <v>0.3619355551669697</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3161697373008926</v>
+        <v>0.3171308261185538</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2690534313425045</v>
+        <v>0.270424746617084</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2667753018379663</v>
+        <v>0.2667982803548692</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2805448161569625</v>
+        <v>0.2744084746680672</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2263194145761726</v>
+        <v>0.2346179671510146</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2205854268457618</v>
+        <v>0.2211526930357514</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1887471930166513</v>
+        <v>0.1912659161053271</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4824710790909141</v>
+        <v>0.4781773938918874</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3202541631586189</v>
+        <v>0.3203634797343959</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3079700590708153</v>
+        <v>0.3115431788733037</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2823395373106428</v>
+        <v>0.2839857044242411</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.402517386715688</v>
+        <v>0.4032873906041778</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2904488505444073</v>
+        <v>0.2901340600139853</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2838235843485753</v>
+        <v>0.2845279634169957</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2485668993774521</v>
+        <v>0.2489592554191022</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.385020795638657</v>
+        <v>0.3836146585669182</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3315789423375096</v>
+        <v>0.3406322640616056</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3170831245982454</v>
+        <v>0.3158823795196561</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2573994360394745</v>
+        <v>0.258295616811022</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5817948161818662</v>
+        <v>0.5772794701194022</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4172932911187373</v>
+        <v>0.4160160287822146</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4093770075274895</v>
+        <v>0.4100326127790453</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3496770623737495</v>
+        <v>0.3502506748092378</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4802639406923291</v>
+        <v>0.4753975844677698</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3648225492500323</v>
+        <v>0.3663369145255574</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3506599887158433</v>
+        <v>0.3492814802603006</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.292601728304878</v>
+        <v>0.2967177264985885</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4023412212107299</v>
+        <v>0.4082326180821967</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3462388129708683</v>
+        <v>0.3577569313314992</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.357254043050017</v>
+        <v>0.3626115579789815</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3156819204371616</v>
+        <v>0.3206114311623229</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.507881452516712</v>
+        <v>0.5196131481351358</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4312654218707957</v>
+        <v>0.4336910136439251</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4059313346103512</v>
+        <v>0.4128985342000017</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3835395424276346</v>
+        <v>0.3855473233621483</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4866481725019506</v>
+        <v>0.4878461711452199</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4168415946705962</v>
+        <v>0.4179159434380133</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4062395168822069</v>
+        <v>0.4094600438228126</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3656064958976556</v>
+        <v>0.3662082625733417</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5397100797242823</v>
+        <v>0.543118722400611</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4845746562523905</v>
+        <v>0.4862306906513299</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4752466815571041</v>
+        <v>0.4757563251478831</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4078453426062978</v>
+        <v>0.4117890941788537</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6208770149834869</v>
+        <v>0.6288649063023052</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5383957626735281</v>
+        <v>0.5360400070476828</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5270677106899418</v>
+        <v>0.5289450386239419</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4511674062283277</v>
+        <v>0.4511117121396709</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5710192479304472</v>
+        <v>0.5766233123683165</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.502904105669816</v>
+        <v>0.5022716325192732</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.488176460718121</v>
+        <v>0.4905929676952269</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4205388688042982</v>
+        <v>0.4211596724286252</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.2223697143628612</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.2349905607586451</v>
+        <v>0.234990560758645</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2466719620614174</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1816660693315169</v>
+        <v>0.1821493220698914</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1592730090497267</v>
+        <v>0.1608513915497739</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1442578254292659</v>
+        <v>0.1437903345558722</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1563832505834706</v>
+        <v>0.1563614991262845</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2812170173402015</v>
+        <v>0.2819448323821211</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2395698194734139</v>
+        <v>0.2397868117507382</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2076007313364292</v>
+        <v>0.2074978752173483</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2242599034128766</v>
+        <v>0.2237530310286292</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2362371159783664</v>
+        <v>0.23715179082099</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2047466180348687</v>
+        <v>0.2035319374674874</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1811299271998177</v>
+        <v>0.1808112718923943</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1935521627104187</v>
+        <v>0.1925966023288771</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2098397559571636</v>
+        <v>0.2100476410255603</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1856570826350928</v>
+        <v>0.1887575038860891</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.168820043499492</v>
+        <v>0.1697306312295102</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1822859266791844</v>
+        <v>0.1834503626429549</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3122100771467919</v>
+        <v>0.3134782816460671</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2681857289825605</v>
+        <v>0.2705963123028862</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2364165924293378</v>
+        <v>0.2372660427911459</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2474160319436267</v>
+        <v>0.2472570791389258</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2577220078275377</v>
+        <v>0.2579744135368318</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2248249234695126</v>
+        <v>0.2243289281906523</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1998001906261117</v>
+        <v>0.1999214303225476</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2105847534675592</v>
+        <v>0.2109494181635412</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>30402</v>
+        <v>31014</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>25693</v>
+        <v>26111</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>18817</v>
+        <v>19301</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7472</v>
+        <v>7840</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>58597</v>
+        <v>58491</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>32820</v>
+        <v>33681</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>29916</v>
+        <v>30488</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>39970</v>
+        <v>39694</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>96527</v>
+        <v>95914</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>65278</v>
+        <v>65668</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>55109</v>
+        <v>53302</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>54596</v>
+        <v>53838</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>55433</v>
+        <v>55296</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>49484</v>
+        <v>49479</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>41805</v>
+        <v>41263</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>34943</v>
+        <v>34794</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>89146</v>
+        <v>88381</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>59125</v>
+        <v>61090</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>54162</v>
+        <v>55420</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>80149</v>
+        <v>78729</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>135072</v>
+        <v>136415</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>101345</v>
+        <v>98383</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>87893</v>
+        <v>86017</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>105360</v>
+        <v>100774</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>71094</v>
+        <v>71824</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>49826</v>
+        <v>50974</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>38585</v>
+        <v>39051</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>35223</v>
+        <v>33999</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>94630</v>
+        <v>97194</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>73922</v>
+        <v>74206</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>46542</v>
+        <v>47910</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>51598</v>
+        <v>52498</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>179353</v>
+        <v>178112</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>131591</v>
+        <v>131597</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>92494</v>
+        <v>94047</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>94770</v>
+        <v>95882</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>106683</v>
+        <v>108891</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>80944</v>
+        <v>83259</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>67279</v>
+        <v>67327</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>70303</v>
+        <v>71488</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>134480</v>
+        <v>135386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>108841</v>
+        <v>108690</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>76648</v>
+        <v>77522</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>82887</v>
+        <v>83436</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>232203</v>
+        <v>233782</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>179769</v>
+        <v>178855</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>132725</v>
+        <v>134831</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>144266</v>
+        <v>142909</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>88859</v>
+        <v>90618</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>79045</v>
+        <v>79521</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>49445</v>
+        <v>50449</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>63301</v>
+        <v>64467</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>131448</v>
+        <v>127862</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>119387</v>
+        <v>117355</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>77096</v>
+        <v>78053</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>83386</v>
+        <v>81640</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>234459</v>
+        <v>231858</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>210018</v>
+        <v>209215</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>135127</v>
+        <v>137717</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>156219</v>
+        <v>155707</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>129467</v>
+        <v>127678</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>118790</v>
+        <v>117714</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>80440</v>
+        <v>81920</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>100555</v>
+        <v>100026</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>175585</v>
+        <v>172246</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>161430</v>
+        <v>160935</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>112925</v>
+        <v>111963</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>112163</v>
+        <v>112548</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>293358</v>
+        <v>290375</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>264694</v>
+        <v>266654</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>185701</v>
+        <v>184423</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>202628</v>
+        <v>203800</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>74593</v>
+        <v>73489</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>81886</v>
+        <v>81959</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>82806</v>
+        <v>81874</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>97303</v>
+        <v>96636</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>125817</v>
+        <v>126108</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>140809</v>
+        <v>143080</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>109415</v>
+        <v>107736</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>137959</v>
+        <v>136516</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>212668</v>
+        <v>208961</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>235308</v>
+        <v>234499</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>200646</v>
+        <v>201059</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>245647</v>
+        <v>242318</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>111054</v>
+        <v>110561</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>121964</v>
+        <v>120432</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>121409</v>
+        <v>121043</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>139706</v>
+        <v>138004</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>166248</v>
+        <v>168636</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>187770</v>
+        <v>189738</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>150455</v>
+        <v>148409</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>171326</v>
+        <v>172626</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>268831</v>
+        <v>264918</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>298136</v>
+        <v>297692</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>257652</v>
+        <v>257127</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>297295</v>
+        <v>295078</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>95803</v>
+        <v>94358</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>84205</v>
+        <v>83962</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>74947</v>
+        <v>73740</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>109215</v>
+        <v>108678</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>126369</v>
+        <v>128691</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>125230</v>
+        <v>124892</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>119231</v>
+        <v>119127</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>154690</v>
+        <v>153566</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>231978</v>
+        <v>230592</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>220957</v>
+        <v>222414</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>205200</v>
+        <v>205192</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>272258</v>
+        <v>275213</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>129971</v>
+        <v>130704</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>120203</v>
+        <v>120467</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>110229</v>
+        <v>109225</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>147247</v>
+        <v>148391</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>164617</v>
+        <v>165464</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>166112</v>
+        <v>166961</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>162811</v>
+        <v>162634</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>186746</v>
+        <v>186790</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>285675</v>
+        <v>286181</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>277353</v>
+        <v>278196</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>261386</v>
+        <v>262718</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>324814</v>
+        <v>324842</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>82083</v>
+        <v>80287</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>70111</v>
+        <v>72681</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>73531</v>
+        <v>73720</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>76835</v>
+        <v>77861</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>165456</v>
+        <v>163983</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>113369</v>
+        <v>113407</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>116339</v>
+        <v>117689</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>123834</v>
+        <v>124556</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>255807</v>
+        <v>256296</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>192795</v>
+        <v>192586</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>201828</v>
+        <v>202329</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>210207</v>
+        <v>210539</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>112651</v>
+        <v>112239</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>102719</v>
+        <v>105523</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>105697</v>
+        <v>105297</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>104782</v>
+        <v>105147</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>199517</v>
+        <v>197969</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>147720</v>
+        <v>147268</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>154647</v>
+        <v>154895</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>153368</v>
+        <v>153619</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>305216</v>
+        <v>302123</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>242163</v>
+        <v>243168</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>249356</v>
+        <v>248376</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>247447</v>
+        <v>250927</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>84445</v>
+        <v>85681</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>86174</v>
+        <v>89040</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>91814</v>
+        <v>93190</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>97924</v>
+        <v>99453</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>169586</v>
+        <v>173503</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>167753</v>
+        <v>168697</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>161925</v>
+        <v>164704</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>177841</v>
+        <v>178772</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>264635</v>
+        <v>265286</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>265889</v>
+        <v>266574</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>266451</v>
+        <v>268563</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>282936</v>
+        <v>283402</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>113276</v>
+        <v>113991</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>120603</v>
+        <v>121016</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>122137</v>
+        <v>122268</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>126513</v>
+        <v>127736</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>207316</v>
+        <v>209983</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>209425</v>
+        <v>208508</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>210246</v>
+        <v>210995</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>209199</v>
+        <v>209173</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>310515</v>
+        <v>313563</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>320785</v>
+        <v>320381</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>320193</v>
+        <v>321778</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>325447</v>
+        <v>325928</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>595237</v>
+        <v>596820</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>545310</v>
+        <v>550714</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>489069</v>
+        <v>487484</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>552310</v>
+        <v>552233</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>950288</v>
+        <v>952747</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>850796</v>
+        <v>851567</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>734558</v>
+        <v>734194</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>836852</v>
+        <v>834961</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1572333</v>
+        <v>1578421</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1428127</v>
+        <v>1419654</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1254970</v>
+        <v>1252762</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1405845</v>
+        <v>1398904</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>687549</v>
+        <v>688230</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>635643</v>
+        <v>646258</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>572340</v>
+        <v>575428</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>643793</v>
+        <v>647905</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1055019</v>
+        <v>1059305</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>952421</v>
+        <v>960982</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>836518</v>
+        <v>839524</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>923262</v>
+        <v>922669</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1715331</v>
+        <v>1717011</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1568175</v>
+        <v>1564715</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1384328</v>
+        <v>1385168</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1529559</v>
+        <v>1532208</v>
       </c>
     </row>
     <row r="36">
